--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\feb_data_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D3E775-2887-4040-AD7E-16CB8A4EE676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E7B90F-2828-428D-B231-1D6A88C9AE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="50">
   <si>
     <t>csv</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>C:\Users\A4952\Downloads\Source_files\FIles\Complex2.json</t>
+  </si>
+  <si>
+    <t>IDENTIFIER,Surname</t>
   </si>
 </sst>
 </file>
@@ -663,10 +666,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -724,7 +727,7 @@
       <c r="K1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="23" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -774,8 +777,8 @@
       <c r="K2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>21</v>
+      <c r="L2" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="M2" s="14" t="s">
         <v>17</v>
@@ -787,10 +790,10 @@
         <v>25</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="28.8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="17" t="s">
         <v>31</v>
       </c>
@@ -806,11 +809,11 @@
       <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>19</v>
+      <c r="F3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>44</v>
@@ -824,8 +827,8 @@
       <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>21</v>
+      <c r="L3" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="M3" s="14" t="s">
         <v>17</v>
@@ -837,7 +840,7 @@
         <v>25</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="28.8">
@@ -1287,7 +1290,7 @@
         <v>25</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:16">

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\feb_data_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E7B90F-2828-428D-B231-1D6A88C9AE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC49942-DD0F-48C1-9A86-8ABE1F48699B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="51">
   <si>
     <t>csv</t>
   </si>
@@ -173,18 +173,28 @@
   </si>
   <si>
     <t>IDENTIFIER,Surname</t>
+  </si>
+  <si>
+    <t>Identifier,Surname</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,81 +323,87 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,10 +682,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -727,13 +743,13 @@
       <c r="K1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -748,7 +764,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>38</v>
@@ -783,8 +799,8 @@
       <c r="M2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>17</v>
+      <c r="N2" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>25</v>
@@ -840,7 +856,7 @@
         <v>25</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="28.8">
@@ -1441,7 +1457,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P9" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B19:B1048576" xr:uid="{703DDE81-D9C0-DC4D-BC27-344A03B57562}">
       <formula1>"count_validation,duplicate,Null_value_check,Uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare"</formula1>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\feb_data_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC49942-DD0F-48C1-9A86-8ABE1F48699B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54CD6F5-229F-41AF-8F23-DAE36FB3B619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="50">
   <si>
     <t>csv</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>batch_date,create_date,update_date,create_user,update_user</t>
-  </si>
-  <si>
-    <t>duplicate_check</t>
   </si>
   <si>
     <t>null_value_check</t>
@@ -182,12 +179,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,54 +334,60 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -379,30 +396,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -682,10 +699,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -767,7 +784,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -782,7 +799,7 @@
         <v>24</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>0</v>
@@ -793,14 +810,14 @@
       <c r="K2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="26" t="s">
         <v>49</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>50</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>25</v>
@@ -811,13 +828,13 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -832,7 +849,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>0</v>
@@ -844,7 +861,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3" s="14" t="s">
         <v>17</v>
@@ -856,18 +873,18 @@
         <v>25</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="28.8">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -882,7 +899,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>0</v>
@@ -906,18 +923,18 @@
         <v>25</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28.8">
       <c r="A5" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
@@ -932,7 +949,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>0</v>
@@ -956,18 +973,18 @@
         <v>25</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="28.8">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -982,7 +999,7 @@
         <v>19</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>0</v>
@@ -1006,18 +1023,18 @@
         <v>25</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="28.8">
       <c r="A7" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
@@ -1032,7 +1049,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>0</v>
@@ -1056,18 +1073,18 @@
         <v>25</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="28.8">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
@@ -1082,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>0</v>
@@ -1106,7 +1123,7 @@
         <v>25</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1117,28 +1134,28 @@
         <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>24</v>
@@ -1156,18 +1173,18 @@
         <v>25</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>0</v>
@@ -1182,13 +1199,13 @@
         <v>24</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>24</v>
@@ -1206,21 +1223,21 @@
         <v>25</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>24</v>
@@ -1232,13 +1249,13 @@
         <v>24</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>24</v>
@@ -1256,21 +1273,21 @@
         <v>25</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>24</v>
@@ -1282,13 +1299,13 @@
         <v>24</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>24</v>
@@ -1306,7 +1323,7 @@
         <v>25</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1457,7 +1474,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P9" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B19:B1048576" xr:uid="{703DDE81-D9C0-DC4D-BC27-344A03B57562}">
       <formula1>"count_validation,duplicate,Null_value_check,Uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare"</formula1>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\feb_data_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54CD6F5-229F-41AF-8F23-DAE36FB3B619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD2340E-EC4C-45DA-9FCA-BEC9EBFA040A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="51">
   <si>
     <t>csv</t>
   </si>
@@ -173,18 +173,28 @@
   </si>
   <si>
     <t>Identifier,Surname</t>
+  </si>
+  <si>
+    <t>Identifier,middle_initial,Primary_street_number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,86 +344,89 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -702,7 +715,7 @@
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -763,7 +776,7 @@
       <c r="L1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="28" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="25" t="s">
@@ -781,7 +794,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>37</v>
@@ -813,8 +826,8 @@
       <c r="L2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="28" t="s">
-        <v>17</v>
+      <c r="M2" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="N2" s="26" t="s">
         <v>49</v>
@@ -873,7 +886,7 @@
         <v>25</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="28.8">
@@ -1474,7 +1487,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P9" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B19:B1048576" xr:uid="{703DDE81-D9C0-DC4D-BC27-344A03B57562}">
       <formula1>"count_validation,duplicate,Null_value_check,Uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare"</formula1>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\feb_data_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD2340E-EC4C-45DA-9FCA-BEC9EBFA040A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A40DF58-17C1-4557-A879-48614271EA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data_validation" sheetId="1" r:id="rId1"/>
+    <sheet name="data_quality_checks" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$P$9</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="60">
   <si>
     <t>csv</t>
   </si>
@@ -176,6 +177,33 @@
   </si>
   <si>
     <t>Identifier,middle_initial,Primary_street_number</t>
+  </si>
+  <si>
+    <t>expected_values</t>
+  </si>
+  <si>
+    <t>min_val</t>
+  </si>
+  <si>
+    <t>max_val</t>
+  </si>
+  <si>
+    <t>dq_column</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>name_check</t>
+  </si>
+  <si>
+    <t>column_range_check</t>
+  </si>
+  <si>
+    <t>column_value_reference_check</t>
+  </si>
+  <si>
+    <t>NOT APP</t>
   </si>
 </sst>
 </file>
@@ -710,12 +738,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -735,11 +763,12 @@
     <col min="13" max="13" width="54.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.6640625" style="2"/>
+    <col min="16" max="16" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -788,8 +817,20 @@
       <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -838,8 +879,20 @@
       <c r="P2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="17" t="s">
         <v>30</v>
       </c>
@@ -888,8 +941,20 @@
       <c r="P3" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="28.8">
+      <c r="Q3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="28.8">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -938,8 +1003,20 @@
       <c r="P4" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="28.8">
+      <c r="Q4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="28.8">
       <c r="A5" s="17" t="s">
         <v>32</v>
       </c>
@@ -988,8 +1065,20 @@
       <c r="P5" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="28.8">
+      <c r="Q5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="28.8">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1038,8 +1127,20 @@
       <c r="P6" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="28.8">
+      <c r="Q6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="28.8">
       <c r="A7" s="17" t="s">
         <v>34</v>
       </c>
@@ -1088,8 +1189,20 @@
       <c r="P7" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="28.8">
+      <c r="Q7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="28.8">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1138,8 +1251,20 @@
       <c r="P8" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1188,8 +1313,20 @@
       <c r="P9" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="23" t="s">
         <v>30</v>
       </c>
@@ -1238,8 +1375,20 @@
       <c r="P10" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="23" t="s">
         <v>30</v>
       </c>
@@ -1288,8 +1437,20 @@
       <c r="P11" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="23" t="s">
         <v>30</v>
       </c>
@@ -1338,59 +1499,206 @@
       <c r="P12" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="6"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="6"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="6"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S14" s="2">
+        <v>5</v>
+      </c>
+      <c r="T14" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
       <c r="C16" s="3"/>
@@ -1488,14 +1796,14 @@
   </sheetData>
   <autoFilter ref="A1:P9" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="19" type="noConversion"/>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B19:B1048576" xr:uid="{703DDE81-D9C0-DC4D-BC27-344A03B57562}">
       <formula1>"count_validation,duplicate,Null_value_check,Uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18 B16 B2:B12" xr:uid="{DC67314B-1334-534F-A26D-DF52A2A8DEF6}">
       <formula1>"count_check,duplicate_check,null_value_check,uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B13:B15" xr:uid="{74169A69-E248-3047-9A8E-76611A2C8774}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{74169A69-E248-3047-9A8E-76611A2C8774}">
       <formula1>"duplicate_check, uniqueness_check, null_value_check, records_present_only_in_target,  records_present_only_in_source,  data_compare,name_std_check, postal_code_std_check  "</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P21" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
@@ -1507,8 +1815,23 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{89E89969-05DB-4AD1-A50D-A19C2A8878F1}">
+      <formula1>"count_check,duplicate_check,null_value_check,uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare,schema_check,name_check,column_range_check,column_value_reference_check"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52B2BCF-86EA-4B4D-A15B-D5045F247DA9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\feb_data_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A40DF58-17C1-4557-A879-48614271EA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFCA010-A865-4085-876E-A75063572496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,7 +743,7 @@
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1375,8 +1375,8 @@
       <c r="P10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>59</v>
+      <c r="Q10" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>59</v>
@@ -1559,7 +1559,7 @@
         <v>25</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>17</v>
@@ -1621,7 +1621,7 @@
         <v>25</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>17</v>
@@ -1683,7 +1683,7 @@
         <v>25</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>17</v>
@@ -1806,7 +1806,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{74169A69-E248-3047-9A8E-76611A2C8774}">
       <formula1>"duplicate_check, uniqueness_check, null_value_check, records_present_only_in_target,  records_present_only_in_source,  data_compare,name_std_check, postal_code_std_check  "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P21" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P21 Q10" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\feb_data_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA69241-8FC6-42EE-B963-BC3F2EEC961F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145EB763-1EA7-4826-9F8A-35EF0316E60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="58">
   <si>
     <t>csv</t>
   </si>
@@ -92,46 +92,82 @@
     <t>batch_date,create_date,update_date,create_user,update_user</t>
   </si>
   <si>
+    <t>Identifier,Surname</t>
+  </si>
+  <si>
+    <t>expected_values</t>
+  </si>
+  <si>
+    <t>min_val</t>
+  </si>
+  <si>
+    <t>max_val</t>
+  </si>
+  <si>
+    <t>dq_column</t>
+  </si>
+  <si>
+    <t>NOT APP</t>
+  </si>
+  <si>
+    <t>source_schema_path</t>
+  </si>
+  <si>
+    <t>schema_check</t>
+  </si>
+  <si>
+    <t>target_schema_path</t>
+  </si>
+  <si>
+    <t>contact_info_raw</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>postgres_db</t>
+  </si>
+  <si>
+    <t>C:\Users\A4952\PycharmProjects\feb_data_automation_project\source_files\contact_info_20240424.csv</t>
+  </si>
+  <si>
+    <t>count_check</t>
+  </si>
+  <si>
+    <t>CIFF_2</t>
+  </si>
+  <si>
+    <t>CIFF_3</t>
+  </si>
+  <si>
+    <t>CIFF_4</t>
+  </si>
+  <si>
+    <t>CIFF_5</t>
+  </si>
+  <si>
+    <t>CIFF_6</t>
+  </si>
+  <si>
+    <t>CIFF_7</t>
+  </si>
+  <si>
+    <t>CIFF_8</t>
+  </si>
+  <si>
+    <t>null_value_check</t>
+  </si>
+  <si>
+    <t>uniqueness_check</t>
+  </si>
+  <si>
     <t>records_present_only_in_source</t>
   </si>
   <si>
     <t>records_present_only_target</t>
   </si>
   <si>
-    <t>CIFF_2</t>
-  </si>
-  <si>
-    <t>CIFF_3</t>
-  </si>
-  <si>
-    <t>CIFF_4</t>
-  </si>
-  <si>
-    <t>CIFF_5</t>
-  </si>
-  <si>
-    <t>CIFF_6</t>
-  </si>
-  <si>
-    <t>CIFF_7</t>
-  </si>
-  <si>
-    <t>Identifier,Surname</t>
-  </si>
-  <si>
-    <t>expected_values</t>
-  </si>
-  <si>
-    <t>min_val</t>
-  </si>
-  <si>
-    <t>max_val</t>
-  </si>
-  <si>
-    <t>dq_column</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
+    <t>data_compare</t>
   </si>
   <si>
     <t>name_check</t>
@@ -143,19 +179,16 @@
     <t>column_value_reference_check</t>
   </si>
   <si>
-    <t>NOT APP</t>
-  </si>
-  <si>
-    <t>source_schema_path</t>
-  </si>
-  <si>
-    <t>schema_check</t>
-  </si>
-  <si>
-    <t>duplicate</t>
-  </si>
-  <si>
-    <t>CIFF_8</t>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>TX,PR,NV</t>
+  </si>
+  <si>
+    <t>birthmonth</t>
   </si>
   <si>
     <t>CIFF_9</t>
@@ -164,83 +197,14 @@
     <t>CIFF_10</t>
   </si>
   <si>
-    <t>CIFF_11</t>
-  </si>
-  <si>
-    <t>Surname</t>
-  </si>
-  <si>
-    <t>zipcode</t>
-  </si>
-  <si>
-    <t>C:\Users\A4952\PycharmProjects\feb_data_automation_project\source_files\contact_info_t2.csv</t>
-  </si>
-  <si>
-    <t>C:\Users\A4952\PycharmProjects\feb_data_automation_project\source_files\contact_info_20240423.csv</t>
-  </si>
-  <si>
-    <t>target_schema_path</t>
-  </si>
-  <si>
-    <t>data_compare</t>
-  </si>
-  <si>
-    <t>uniqueness_check</t>
-  </si>
-  <si>
-    <t>count_check</t>
-  </si>
-  <si>
-    <t>null_value_check</t>
-  </si>
-  <si>
-    <t>CIFD_1</t>
-  </si>
-  <si>
-    <t>CIFD_2</t>
-  </si>
-  <si>
-    <t>CIFD_3</t>
-  </si>
-  <si>
-    <t>CIFD_4</t>
-  </si>
-  <si>
-    <t>CIFD_5</t>
-  </si>
-  <si>
-    <t>CIFD_6</t>
-  </si>
-  <si>
-    <t>CIFD_7</t>
-  </si>
-  <si>
-    <t>CIFD_8</t>
-  </si>
-  <si>
-    <t>CIFD_9</t>
-  </si>
-  <si>
-    <t>CIFD_10</t>
-  </si>
-  <si>
-    <t>CIFD_11</t>
-  </si>
-  <si>
-    <t>contact_info_raw</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>postgres_db</t>
+    <t>snowflake_db</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,9 +284,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -332,10 +297,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF8E00C6"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFC77DBB"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -360,24 +364,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,33 +404,40 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,10 +719,10 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -742,7 +768,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>12</v>
@@ -754,7 +780,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>3</v>
@@ -775,16 +801,16 @@
         <v>9</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -792,10 +818,10 @@
         <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -809,14 +835,14 @@
       <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
+      <c r="H2" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>20</v>
@@ -830,20 +856,20 @@
       <c r="N2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="21" t="s">
         <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="T2" s="2">
         <v>0</v>
@@ -853,14 +879,14 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="12" t="s">
-        <v>24</v>
+      <c r="A3" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -874,14 +900,14 @@
       <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>49</v>
+      <c r="H3" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>20</v>
@@ -895,20 +921,20 @@
       <c r="N3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="O3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="21" t="s">
         <v>21</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="T3" s="2">
         <v>0</v>
@@ -919,13 +945,13 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -939,14 +965,14 @@
       <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>49</v>
+      <c r="H4" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>20</v>
@@ -960,20 +986,20 @@
       <c r="N4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="O4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="21" t="s">
         <v>21</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
@@ -983,14 +1009,14 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="12" t="s">
-        <v>26</v>
+      <c r="A5" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
@@ -1004,14 +1030,14 @@
       <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>49</v>
+      <c r="H5" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>20</v>
@@ -1025,20 +1051,20 @@
       <c r="N5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="O5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="21" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
@@ -1049,13 +1075,13 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -1069,14 +1095,14 @@
       <c r="G6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>49</v>
+      <c r="H6" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>20</v>
@@ -1090,20 +1116,20 @@
       <c r="N6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="O6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="21" t="s">
         <v>21</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
@@ -1113,14 +1139,14 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="12" t="s">
-        <v>28</v>
+      <c r="A7" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
@@ -1134,14 +1160,14 @@
       <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>49</v>
+      <c r="H7" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>20</v>
@@ -1155,20 +1181,20 @@
       <c r="N7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="2" t="s">
+      <c r="O7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="21" t="s">
         <v>21</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="T7" s="2">
         <v>0</v>
@@ -1179,13 +1205,13 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
@@ -1199,14 +1225,14 @@
       <c r="G8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>49</v>
+      <c r="H8" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>20</v>
@@ -1220,20 +1246,20 @@
       <c r="N8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="2" t="s">
+      <c r="O8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="21" t="s">
         <v>21</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
@@ -1243,14 +1269,14 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="12" t="s">
-        <v>43</v>
+      <c r="A9" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>0</v>
@@ -1264,14 +1290,14 @@
       <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>49</v>
+      <c r="H9" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>20</v>
@@ -1285,20 +1311,20 @@
       <c r="N9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="2" t="s">
+      <c r="O9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="21" t="s">
         <v>21</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>39</v>
+      <c r="R9" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="T9" s="2">
         <v>0</v>
@@ -1309,13 +1335,13 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>0</v>
@@ -1329,14 +1355,14 @@
       <c r="G10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>49</v>
+      <c r="H10" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>20</v>
@@ -1350,37 +1376,37 @@
       <c r="N10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="2" t="s">
+      <c r="O10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="21" t="s">
         <v>21</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>47</v>
+      <c r="R10" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="T10" s="2">
-        <v>0</v>
+        <v>200001</v>
       </c>
       <c r="U10" s="2">
-        <v>0</v>
+        <v>202401</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="12" t="s">
-        <v>45</v>
+      <c r="A11" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>0</v>
@@ -1394,14 +1420,14 @@
       <c r="G11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>49</v>
+      <c r="H11" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>20</v>
@@ -1415,37 +1441,37 @@
       <c r="N11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="2" t="s">
+      <c r="O11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="21" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
+      </c>
+      <c r="S11" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="T11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="1" t="s">
-        <v>46</v>
+      <c r="A12" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>0</v>
@@ -1459,14 +1485,14 @@
       <c r="G12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>49</v>
+      <c r="H12" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>20</v>
@@ -1480,20 +1506,20 @@
       <c r="N12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="2" t="s">
+      <c r="O12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="21" t="s">
         <v>21</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
@@ -1503,723 +1529,206 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
+      <c r="A13" s="15"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="10"/>
+      <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
+      <c r="A14" s="15"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="10"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
+      <c r="A15" s="15"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="10"/>
+      <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0</v>
-      </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0</v>
-      </c>
-      <c r="U20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0</v>
-      </c>
-      <c r="U21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T22" s="2">
-        <v>1</v>
-      </c>
-      <c r="U22" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0</v>
-      </c>
-      <c r="U23" s="2">
-        <v>0</v>
-      </c>
+      <c r="A16" s="15"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="10"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="15"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="10"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="15"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="10"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="15"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="10"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="15"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="10"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="15"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="10"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="15"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="10"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="15"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="10"/>
+      <c r="Q23" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q9" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q23" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\feb_data_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145EB763-1EA7-4826-9F8A-35EF0316E60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19766ED-DDCE-41E3-A765-6EA074352EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="data_quality_checks" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$Q$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$U$32</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="85">
   <si>
     <t>csv</t>
   </si>
@@ -198,18 +198,127 @@
   </si>
   <si>
     <t>snowflake_db</t>
+  </si>
+  <si>
+    <t>CIFS_1</t>
+  </si>
+  <si>
+    <t>snowflake</t>
+  </si>
+  <si>
+    <t>CIRB_1</t>
+  </si>
+  <si>
+    <t>CIRB_2</t>
+  </si>
+  <si>
+    <t>CIRB_3</t>
+  </si>
+  <si>
+    <t>CIRB_4</t>
+  </si>
+  <si>
+    <t>CIRB_5</t>
+  </si>
+  <si>
+    <t>CIRB_6</t>
+  </si>
+  <si>
+    <t>CIRB_7</t>
+  </si>
+  <si>
+    <t>CIRB_8</t>
+  </si>
+  <si>
+    <t>CIRB_9</t>
+  </si>
+  <si>
+    <t>CIRB_10</t>
+  </si>
+  <si>
+    <t>C:\Users\A4952\PycharmProjects\feb_data_automation_project\transformation_queries\contact_info_raw_bronze_validation_query.sql</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>contact_info_bronze</t>
+  </si>
+  <si>
+    <t>CIBS_1</t>
+  </si>
+  <si>
+    <t>CIBS_2</t>
+  </si>
+  <si>
+    <t>CIBS_3</t>
+  </si>
+  <si>
+    <t>CIBS_4</t>
+  </si>
+  <si>
+    <t>CIBS_5</t>
+  </si>
+  <si>
+    <t>CIBS_6</t>
+  </si>
+  <si>
+    <t>CIBS_7</t>
+  </si>
+  <si>
+    <t>CIBS_8</t>
+  </si>
+  <si>
+    <t>CIBS_9</t>
+  </si>
+  <si>
+    <t>CIBS_10</t>
+  </si>
+  <si>
+    <t>C:\Users\A4952\PycharmProjects\feb_data_automation_project\transformation_queries\contact_info_bronze_silver_validation_query.sql</t>
+  </si>
+  <si>
+    <t>contact_info_silver</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,24 +473,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,13 +504,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -404,28 +522,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -434,10 +538,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -716,13 +831,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U23"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -761,13 +877,13 @@
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -776,25 +892,25 @@
       <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -829,37 +945,37 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="18" t="s">
+      <c r="F2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="23" t="s">
         <v>20</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="21" t="s">
+      <c r="M2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -879,7 +995,7 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -894,37 +1010,37 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="F3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="23" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="21" t="s">
+      <c r="M3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -959,37 +1075,37 @@
       <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="18" t="s">
+      <c r="F4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="23" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="21" t="s">
+      <c r="M4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -1009,7 +1125,7 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1024,37 +1140,37 @@
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="F5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="J5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="23" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="21" t="s">
+      <c r="M5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="14" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -1089,37 +1205,37 @@
       <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="18" t="s">
+      <c r="F6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="23" t="s">
         <v>20</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="21" t="s">
+      <c r="M6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -1139,7 +1255,7 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1154,37 +1270,37 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="18" t="s">
+      <c r="F7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="24" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="J7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="23" t="s">
         <v>20</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="21" t="s">
+      <c r="M7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="Q7" s="1" t="s">
@@ -1219,37 +1335,37 @@
       <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="18" t="s">
+      <c r="F8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="J8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="23" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" s="21" t="s">
+      <c r="M8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="14" t="s">
         <v>21</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -1268,8 +1384,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:21" hidden="1">
+      <c r="A9" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1284,43 +1400,43 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="18" t="s">
+      <c r="F9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>31</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="J9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>20</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="21" t="s">
+      <c r="M9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R9" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="16" t="s">
         <v>51</v>
       </c>
       <c r="S9" s="2" t="s">
@@ -1333,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" hidden="1">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -1349,43 +1465,43 @@
       <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="18" t="s">
+      <c r="F10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>31</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="J10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>20</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" s="21" t="s">
+      <c r="M10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R10" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" s="17" t="s">
         <v>54</v>
       </c>
       <c r="S10" s="2" t="s">
@@ -1398,8 +1514,8 @@
         <v>202401</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:21" hidden="1">
+      <c r="A11" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1414,46 +1530,46 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="18" t="s">
+      <c r="F11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>31</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="J11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="23" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" s="21" t="s">
+      <c r="M11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="26" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="18" t="s">
         <v>53</v>
       </c>
       <c r="T11" s="2">
@@ -1464,11 +1580,11 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="22" t="s">
-        <v>56</v>
+      <c r="A12" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>34</v>
@@ -1479,37 +1595,37 @@
       <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="18" t="s">
+      <c r="F12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="24" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="23" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="21" t="s">
+      <c r="M12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="Q12" s="1" t="s">
@@ -1518,7 +1634,7 @@
       <c r="R12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="18" t="s">
         <v>53</v>
       </c>
       <c r="T12" s="2">
@@ -1529,208 +1645,1316 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="15"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="10"/>
-      <c r="Q13" s="1"/>
+      <c r="A13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="15"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="10"/>
-      <c r="Q14" s="1"/>
+      <c r="A14" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="15"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="10"/>
-      <c r="Q15" s="1"/>
+      <c r="A15" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="15"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="10"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="15"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="10"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="15"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="10"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="15"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="10"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="15"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="10"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="15"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="10"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="15"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="10"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="15"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="10"/>
-      <c r="Q23" s="1"/>
+      <c r="A16" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" hidden="1">
+      <c r="A20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" hidden="1">
+      <c r="A21" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21" s="2">
+        <v>200001</v>
+      </c>
+      <c r="U21" s="2">
+        <v>202401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" hidden="1">
+      <c r="A22" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S22" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" hidden="1">
+      <c r="A30" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" hidden="1">
+      <c r="A31" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T31" s="2">
+        <v>200001</v>
+      </c>
+      <c r="U31" s="2">
+        <v>202401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" hidden="1">
+      <c r="A32" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S32" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q9" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <autoFilter ref="A1:U32" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="16">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q23" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q32" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\feb_data_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19766ED-DDCE-41E3-A765-6EA074352EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAB7E0E-CF8A-4DE7-AA9E-9003E7494DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="90">
   <si>
     <t>csv</t>
   </si>
@@ -279,18 +279,47 @@
   </si>
   <si>
     <t>contact_info_silver</t>
+  </si>
+  <si>
+    <t>CU_SCD2</t>
+  </si>
+  <si>
+    <t>customer_raw</t>
+  </si>
+  <si>
+    <t>C:\Users\A4952\PycharmProjects\feb_data_automation_project\transformation_queries\customer_scd2.sql</t>
+  </si>
+  <si>
+    <t>customer_scd2</t>
+  </si>
+  <si>
+    <t>customer_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,6 +479,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -473,64 +508,82 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -538,20 +591,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -832,13 +882,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -979,7 +1029,7 @@
         <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>27</v>
@@ -1044,7 +1094,7 @@
         <v>21</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>27</v>
@@ -1109,7 +1159,7 @@
         <v>21</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>27</v>
@@ -1174,7 +1224,7 @@
         <v>21</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>27</v>
@@ -1239,7 +1289,7 @@
         <v>21</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>27</v>
@@ -1304,7 +1354,7 @@
         <v>21</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>27</v>
@@ -1369,7 +1419,7 @@
         <v>21</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>27</v>
@@ -1629,7 +1679,7 @@
         <v>21</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>52</v>
@@ -1694,7 +1744,7 @@
         <v>21</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>27</v>
@@ -1759,7 +1809,7 @@
         <v>21</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>27</v>
@@ -1824,7 +1874,7 @@
         <v>21</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>27</v>
@@ -1889,7 +1939,7 @@
         <v>21</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>27</v>
@@ -1954,7 +2004,7 @@
         <v>21</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>27</v>
@@ -2019,7 +2069,7 @@
         <v>21</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>27</v>
@@ -2084,7 +2134,7 @@
         <v>21</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>27</v>
@@ -2344,7 +2394,7 @@
         <v>21</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>27</v>
@@ -2409,7 +2459,7 @@
         <v>21</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>27</v>
@@ -2470,11 +2520,11 @@
       <c r="O25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P25" s="14" t="s">
+      <c r="P25" s="32" t="s">
         <v>21</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>27</v>
@@ -2539,7 +2589,7 @@
         <v>21</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>27</v>
@@ -2604,7 +2654,7 @@
         <v>21</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>27</v>
@@ -2669,7 +2719,7 @@
         <v>21</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>27</v>
@@ -2730,11 +2780,11 @@
       <c r="O29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P29" s="14" t="s">
+      <c r="P29" s="28" t="s">
         <v>21</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>27</v>
@@ -2941,6 +2991,71 @@
         <v>0</v>
       </c>
       <c r="U32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O33" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2952,9 +3067,9 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q32" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q33" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\feb_data_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAB7E0E-CF8A-4DE7-AA9E-9003E7494DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D461AB37-CC27-491D-9B57-290B01A83E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="data_quality_checks" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$U$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$U$33</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -591,17 +591,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -881,14 +881,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1029,7 +1028,7 @@
         <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>27</v>
@@ -1094,7 +1093,7 @@
         <v>21</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>27</v>
@@ -1159,7 +1158,7 @@
         <v>21</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>27</v>
@@ -1224,7 +1223,7 @@
         <v>21</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>27</v>
@@ -1289,7 +1288,7 @@
         <v>21</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>27</v>
@@ -1354,7 +1353,7 @@
         <v>21</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>27</v>
@@ -1419,7 +1418,7 @@
         <v>21</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>27</v>
@@ -1434,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1">
+    <row r="9" spans="1:21">
       <c r="A9" s="15" t="s">
         <v>42</v>
       </c>
@@ -1484,7 +1483,7 @@
         <v>21</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R9" s="16" t="s">
         <v>51</v>
@@ -1499,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1">
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>21</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R10" s="17" t="s">
         <v>54</v>
@@ -1564,7 +1563,7 @@
         <v>202401</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1">
+    <row r="11" spans="1:21">
       <c r="A11" s="15" t="s">
         <v>56</v>
       </c>
@@ -1614,7 +1613,7 @@
         <v>21</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>52</v>
@@ -1666,7 +1665,7 @@
       <c r="L12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="32" t="s">
         <v>18</v>
       </c>
       <c r="N12" s="10" t="s">
@@ -1679,7 +1678,7 @@
         <v>21</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>52</v>
@@ -1710,7 +1709,7 @@
       <c r="E13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="32" t="s">
         <v>70</v>
       </c>
       <c r="G13" s="23" t="s">
@@ -1740,11 +1739,11 @@
       <c r="O13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="P13" s="32" t="s">
         <v>21</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>27</v>
@@ -1809,7 +1808,7 @@
         <v>21</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>27</v>
@@ -1874,7 +1873,7 @@
         <v>21</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>27</v>
@@ -1939,7 +1938,7 @@
         <v>21</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>27</v>
@@ -2004,7 +2003,7 @@
         <v>21</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>27</v>
@@ -2069,7 +2068,7 @@
         <v>21</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>27</v>
@@ -2134,7 +2133,7 @@
         <v>21</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>27</v>
@@ -2149,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1">
+    <row r="20" spans="1:21">
       <c r="A20" s="20" t="s">
         <v>67</v>
       </c>
@@ -2199,7 +2198,7 @@
         <v>21</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R20" s="16" t="s">
         <v>51</v>
@@ -2214,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1">
+    <row r="21" spans="1:21">
       <c r="A21" s="20" t="s">
         <v>68</v>
       </c>
@@ -2264,7 +2263,7 @@
         <v>21</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R21" s="17" t="s">
         <v>54</v>
@@ -2279,7 +2278,7 @@
         <v>202401</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1">
+    <row r="22" spans="1:21">
       <c r="A22" s="20" t="s">
         <v>69</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>21</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>52</v>
@@ -2360,14 +2359,14 @@
       <c r="E23" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="32" t="s">
         <v>83</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>32</v>
@@ -2394,7 +2393,7 @@
         <v>21</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>27</v>
@@ -2432,7 +2431,7 @@
         <v>20</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>32</v>
@@ -2459,7 +2458,7 @@
         <v>21</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>27</v>
@@ -2497,7 +2496,7 @@
         <v>20</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>32</v>
@@ -2520,11 +2519,11 @@
       <c r="O25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P25" s="32" t="s">
+      <c r="P25" s="31" t="s">
         <v>21</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>27</v>
@@ -2562,7 +2561,7 @@
         <v>20</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>32</v>
@@ -2589,7 +2588,7 @@
         <v>21</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>27</v>
@@ -2654,7 +2653,7 @@
         <v>21</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>27</v>
@@ -2719,7 +2718,7 @@
         <v>21</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>27</v>
@@ -2780,11 +2779,11 @@
       <c r="O29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P29" s="28" t="s">
+      <c r="P29" s="27" t="s">
         <v>21</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>27</v>
@@ -2799,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1">
+    <row r="30" spans="1:21">
       <c r="A30" s="21" t="s">
         <v>80</v>
       </c>
@@ -2849,7 +2848,7 @@
         <v>21</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R30" s="16" t="s">
         <v>51</v>
@@ -2864,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" hidden="1">
+    <row r="31" spans="1:21">
       <c r="A31" s="21" t="s">
         <v>81</v>
       </c>
@@ -2914,7 +2913,7 @@
         <v>21</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R31" s="17" t="s">
         <v>54</v>
@@ -2929,7 +2928,7 @@
         <v>202401</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1">
+    <row r="32" spans="1:21">
       <c r="A32" s="21" t="s">
         <v>82</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>21</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R32" s="2" t="s">
         <v>52</v>
@@ -2998,7 +2997,7 @@
       <c r="A33" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -3013,10 +3012,10 @@
       <c r="F33" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="31" t="s">
+      <c r="G33" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="30" t="s">
         <v>88</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -3031,20 +3030,20 @@
       <c r="L33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M33" s="29" t="s">
+      <c r="M33" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="N33" s="29" t="s">
+      <c r="N33" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="O33" s="29" t="s">
+      <c r="O33" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="P33" s="28" t="s">
+      <c r="P33" s="27" t="s">
         <v>21</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R33" s="2" t="s">
         <v>27</v>
@@ -3060,13 +3059,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U32" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="16">
-      <filters>
-        <filter val="Y"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q33" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\feb_data_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D461AB37-CC27-491D-9B57-290B01A83E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79F7B80-AA9A-4D50-A3BA-840168AF953F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="91">
   <si>
     <t>csv</t>
   </si>
@@ -294,18 +294,28 @@
   </si>
   <si>
     <t>customer_id</t>
+  </si>
+  <si>
+    <t>contact_info_schema.json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -508,97 +518,100 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -884,10 +897,10 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -997,8 +1010,8 @@
       <c r="F2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>20</v>
+      <c r="G2" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>31</v>
@@ -1062,8 +1075,8 @@
       <c r="F3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>20</v>
+      <c r="G3" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>31</v>
@@ -1127,8 +1140,8 @@
       <c r="F4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>20</v>
+      <c r="G4" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>31</v>
@@ -1192,8 +1205,8 @@
       <c r="F5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>20</v>
+      <c r="G5" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>31</v>
@@ -1257,8 +1270,8 @@
       <c r="F6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>20</v>
+      <c r="G6" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>31</v>
@@ -1322,8 +1335,8 @@
       <c r="F7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>20</v>
+      <c r="G7" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>31</v>
@@ -1387,8 +1400,8 @@
       <c r="F8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>20</v>
+      <c r="G8" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>31</v>
@@ -1452,8 +1465,8 @@
       <c r="F9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="23" t="s">
-        <v>20</v>
+      <c r="G9" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>31</v>
@@ -1483,7 +1496,7 @@
         <v>21</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R9" s="16" t="s">
         <v>51</v>
@@ -1517,8 +1530,8 @@
       <c r="F10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>20</v>
+      <c r="G10" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>31</v>
@@ -1548,7 +1561,7 @@
         <v>21</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R10" s="17" t="s">
         <v>54</v>
@@ -1582,8 +1595,8 @@
       <c r="F11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="23" t="s">
-        <v>20</v>
+      <c r="G11" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>31</v>
@@ -1613,7 +1626,7 @@
         <v>21</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>52</v>
@@ -1647,8 +1660,8 @@
       <c r="F12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>20</v>
+      <c r="G12" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>31</v>
@@ -1678,7 +1691,7 @@
         <v>21</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>52</v>
@@ -1743,7 +1756,7 @@
         <v>21</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>27</v>
@@ -1808,7 +1821,7 @@
         <v>21</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>27</v>
@@ -1873,7 +1886,7 @@
         <v>21</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>27</v>
@@ -1938,7 +1951,7 @@
         <v>21</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>27</v>
@@ -2003,7 +2016,7 @@
         <v>21</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>27</v>
@@ -2068,7 +2081,7 @@
         <v>21</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>27</v>
@@ -2133,7 +2146,7 @@
         <v>21</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>27</v>
@@ -2198,7 +2211,7 @@
         <v>21</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R20" s="16" t="s">
         <v>51</v>
@@ -2263,7 +2276,7 @@
         <v>21</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R21" s="17" t="s">
         <v>54</v>
@@ -2328,7 +2341,7 @@
         <v>21</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>52</v>
@@ -2393,7 +2406,7 @@
         <v>21</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>27</v>
@@ -2458,7 +2471,7 @@
         <v>21</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>27</v>
@@ -2523,7 +2536,7 @@
         <v>21</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>27</v>
@@ -2588,7 +2601,7 @@
         <v>21</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>27</v>
@@ -2653,7 +2666,7 @@
         <v>21</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>27</v>
@@ -2718,7 +2731,7 @@
         <v>21</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>27</v>
@@ -2783,7 +2796,7 @@
         <v>21</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>27</v>
@@ -2848,7 +2861,7 @@
         <v>21</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R30" s="16" t="s">
         <v>51</v>
@@ -2913,7 +2926,7 @@
         <v>21</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R31" s="17" t="s">
         <v>54</v>
@@ -2978,7 +2991,7 @@
         <v>21</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="R32" s="2" t="s">
         <v>52</v>
@@ -3059,7 +3072,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q33" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\feb_data_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79F7B80-AA9A-4D50-A3BA-840168AF953F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B823439-A178-4428-AD48-D4313E20F67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="data_quality_checks" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$U$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$U$26</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -128,9 +128,6 @@
     <t>postgres_db</t>
   </si>
   <si>
-    <t>C:\Users\A4952\PycharmProjects\feb_data_automation_project\source_files\contact_info_20240424.csv</t>
-  </si>
-  <si>
     <t>count_check</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>CIFF_7</t>
   </si>
   <si>
-    <t>CIFF_8</t>
-  </si>
-  <si>
     <t>null_value_check</t>
   </si>
   <si>
@@ -191,131 +185,130 @@
     <t>birthmonth</t>
   </si>
   <si>
-    <t>CIFF_9</t>
-  </si>
-  <si>
-    <t>CIFF_10</t>
+    <t>CIRB_1</t>
+  </si>
+  <si>
+    <t>CIRB_2</t>
+  </si>
+  <si>
+    <t>CIRB_3</t>
+  </si>
+  <si>
+    <t>CIRB_4</t>
+  </si>
+  <si>
+    <t>CIRB_5</t>
+  </si>
+  <si>
+    <t>CIRB_6</t>
+  </si>
+  <si>
+    <t>CIRB_7</t>
+  </si>
+  <si>
+    <t>contact_info_bronze</t>
+  </si>
+  <si>
+    <t>CIBS_1</t>
+  </si>
+  <si>
+    <t>CIBS_2</t>
+  </si>
+  <si>
+    <t>CIBS_3</t>
+  </si>
+  <si>
+    <t>CIBS_4</t>
+  </si>
+  <si>
+    <t>CIBS_5</t>
+  </si>
+  <si>
+    <t>CIBS_6</t>
+  </si>
+  <si>
+    <t>CIBS_7</t>
+  </si>
+  <si>
+    <t>CIBS_8</t>
+  </si>
+  <si>
+    <t>CIBS_9</t>
+  </si>
+  <si>
+    <t>CIBS_10</t>
+  </si>
+  <si>
+    <t>contact_info_silver</t>
+  </si>
+  <si>
+    <t>CU_SCD2</t>
+  </si>
+  <si>
+    <t>customer_raw</t>
+  </si>
+  <si>
+    <t>C:\Users\A4952\PycharmProjects\feb_data_automation_project\transformation_queries\customer_scd2.sql</t>
+  </si>
+  <si>
+    <t>customer_scd2</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>contact_info_schema.json</t>
+  </si>
+  <si>
+    <t>contact_info_raw_bronze_validation_query.sql</t>
+  </si>
+  <si>
+    <t>contact_info_bronze_silver_validation_query.sql</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>contact_info_20240426.csv</t>
+  </si>
+  <si>
+    <t>CIFS_1</t>
+  </si>
+  <si>
+    <t>CIFS_2</t>
+  </si>
+  <si>
+    <t>CIFS_3</t>
+  </si>
+  <si>
+    <t>CIFS_4</t>
+  </si>
+  <si>
+    <t>CIFS_5</t>
+  </si>
+  <si>
+    <t>CIFS_6</t>
+  </si>
+  <si>
+    <t>CIFS_7</t>
   </si>
   <si>
     <t>snowflake_db</t>
   </si>
   <si>
-    <t>CIFS_1</t>
-  </si>
-  <si>
-    <t>snowflake</t>
-  </si>
-  <si>
-    <t>CIRB_1</t>
-  </si>
-  <si>
-    <t>CIRB_2</t>
-  </si>
-  <si>
-    <t>CIRB_3</t>
-  </si>
-  <si>
-    <t>CIRB_4</t>
-  </si>
-  <si>
-    <t>CIRB_5</t>
-  </si>
-  <si>
-    <t>CIRB_6</t>
-  </si>
-  <si>
-    <t>CIRB_7</t>
-  </si>
-  <si>
-    <t>CIRB_8</t>
-  </si>
-  <si>
-    <t>CIRB_9</t>
-  </si>
-  <si>
-    <t>CIRB_10</t>
-  </si>
-  <si>
-    <t>C:\Users\A4952\PycharmProjects\feb_data_automation_project\transformation_queries\contact_info_raw_bronze_validation_query.sql</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>contact_info_bronze</t>
-  </si>
-  <si>
-    <t>CIBS_1</t>
-  </si>
-  <si>
-    <t>CIBS_2</t>
-  </si>
-  <si>
-    <t>CIBS_3</t>
-  </si>
-  <si>
-    <t>CIBS_4</t>
-  </si>
-  <si>
-    <t>CIBS_5</t>
-  </si>
-  <si>
-    <t>CIBS_6</t>
-  </si>
-  <si>
-    <t>CIBS_7</t>
-  </si>
-  <si>
-    <t>CIBS_8</t>
-  </si>
-  <si>
-    <t>CIBS_9</t>
-  </si>
-  <si>
-    <t>CIBS_10</t>
-  </si>
-  <si>
-    <t>C:\Users\A4952\PycharmProjects\feb_data_automation_project\transformation_queries\contact_info_bronze_silver_validation_query.sql</t>
-  </si>
-  <si>
-    <t>contact_info_silver</t>
-  </si>
-  <si>
-    <t>CU_SCD2</t>
-  </si>
-  <si>
-    <t>customer_raw</t>
-  </si>
-  <si>
-    <t>C:\Users\A4952\PycharmProjects\feb_data_automation_project\transformation_queries\customer_scd2.sql</t>
-  </si>
-  <si>
-    <t>customer_scd2</t>
-  </si>
-  <si>
-    <t>customer_id</t>
-  </si>
-  <si>
-    <t>contact_info_schema.json</t>
+    <t>ETL_AUTO.CONTACT_INFO.CONTACT_INFO_RAW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,97 +511,94 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -897,10 +887,10 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -945,7 +935,7 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="31" t="s">
         <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -999,7 +989,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -1007,22 +997,22 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="24" t="s">
+      <c r="F2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="23" t="s">
+      <c r="J2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -1041,7 +1031,7 @@
         <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>27</v>
@@ -1058,13 +1048,13 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -1072,22 +1062,22 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="24" t="s">
+      <c r="F3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="23" t="s">
+      <c r="J3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -1106,7 +1096,7 @@
         <v>21</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>27</v>
@@ -1123,13 +1113,13 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -1137,22 +1127,22 @@
       <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="24" t="s">
+      <c r="F4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -1171,7 +1161,7 @@
         <v>21</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>27</v>
@@ -1188,13 +1178,13 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
@@ -1202,22 +1192,22 @@
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="24" t="s">
+      <c r="F5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="23" t="s">
+      <c r="J5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -1236,7 +1226,7 @@
         <v>21</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>27</v>
@@ -1253,13 +1243,13 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -1267,22 +1257,22 @@
       <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="24" t="s">
+      <c r="F6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="23" t="s">
+      <c r="J6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L6" s="3" t="s">
@@ -1301,7 +1291,7 @@
         <v>21</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>27</v>
@@ -1318,13 +1308,13 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
@@ -1332,22 +1322,22 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="24" t="s">
+      <c r="F7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="23" t="s">
+      <c r="J7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -1366,7 +1356,7 @@
         <v>21</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>27</v>
@@ -1383,13 +1373,13 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
@@ -1397,22 +1387,22 @@
       <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="24" t="s">
+      <c r="F8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="23" t="s">
+      <c r="J8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -1431,7 +1421,7 @@
         <v>21</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>27</v>
@@ -1447,37 +1437,37 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="15" t="s">
-        <v>42</v>
+      <c r="A9" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="23" t="s">
+      <c r="J9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -1492,14 +1482,14 @@
       <c r="O9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="30" t="s">
         <v>21</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>51</v>
+        <v>80</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>27</v>
@@ -1512,37 +1502,37 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="1" t="s">
-        <v>55</v>
+      <c r="A10" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L10" s="3" t="s">
@@ -1561,53 +1551,53 @@
         <v>21</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="R10" s="17" t="s">
-        <v>54</v>
+        <v>80</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="T10" s="2">
-        <v>200001</v>
+        <v>0</v>
       </c>
       <c r="U10" s="2">
-        <v>202401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="15" t="s">
-        <v>56</v>
+      <c r="A11" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="23" t="s">
+      <c r="J11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -1622,17 +1612,17 @@
       <c r="O11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="26" t="s">
+      <c r="P11" s="14" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S11" s="18" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T11" s="2">
         <v>0</v>
@@ -1643,42 +1633,42 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="32" t="s">
+      <c r="M12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="N12" s="10" t="s">
@@ -1691,13 +1681,13 @@
         <v>21</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S12" s="18" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
@@ -1707,11 +1697,11 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="20" t="s">
-        <v>60</v>
+      <c r="A13" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>31</v>
@@ -1719,25 +1709,25 @@
       <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>72</v>
+      <c r="E13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="23" t="s">
+      <c r="J13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L13" s="3" t="s">
@@ -1752,11 +1742,11 @@
       <c r="O13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="14" t="s">
         <v>21</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>27</v>
@@ -1772,11 +1762,11 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="20" t="s">
-        <v>61</v>
+      <c r="A14" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>31</v>
@@ -1784,25 +1774,25 @@
       <c r="D14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>72</v>
+      <c r="E14" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="23" t="s">
+      <c r="J14" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="3" t="s">
@@ -1821,7 +1811,7 @@
         <v>21</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>27</v>
@@ -1837,11 +1827,11 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="20" t="s">
-        <v>62</v>
+      <c r="A15" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>31</v>
@@ -1849,25 +1839,25 @@
       <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>72</v>
+      <c r="E15" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="23" t="s">
+      <c r="J15" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -1886,7 +1876,7 @@
         <v>21</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>27</v>
@@ -1903,36 +1893,36 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>72</v>
+      <c r="E16" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="23" t="s">
+      <c r="J16" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L16" s="3" t="s">
@@ -1947,11 +1937,11 @@
       <c r="O16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="P16" s="19" t="s">
         <v>21</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>27</v>
@@ -1968,36 +1958,36 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>72</v>
+      <c r="E17" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="23" t="s">
+      <c r="J17" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -2016,7 +2006,7 @@
         <v>21</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>27</v>
@@ -2033,36 +2023,36 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>72</v>
+      <c r="E18" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="23" t="s">
+      <c r="J18" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="3" t="s">
@@ -2077,11 +2067,11 @@
       <c r="O18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="29" t="s">
         <v>21</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>27</v>
@@ -2098,36 +2088,36 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>72</v>
+      <c r="E19" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="23" t="s">
+      <c r="J19" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L19" s="3" t="s">
@@ -2146,7 +2136,7 @@
         <v>21</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>27</v>
@@ -2163,36 +2153,36 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>72</v>
+      <c r="E20" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="23" t="s">
+      <c r="J20" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="3" t="s">
@@ -2211,10 +2201,10 @@
         <v>21</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="R20" s="16" t="s">
-        <v>51</v>
+        <v>80</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>27</v>
@@ -2228,36 +2218,36 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>72</v>
+      <c r="E21" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="23" t="s">
+      <c r="J21" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L21" s="3" t="s">
@@ -2276,53 +2266,53 @@
         <v>21</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="R21" s="17" t="s">
-        <v>54</v>
+        <v>80</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="T21" s="2">
-        <v>200001</v>
+        <v>0</v>
       </c>
       <c r="U21" s="2">
-        <v>202401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>72</v>
+      <c r="E22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="23" t="s">
+      <c r="J22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L22" s="3" t="s">
@@ -2337,57 +2327,57 @@
       <c r="O22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P22" s="14" t="s">
+      <c r="P22" s="25" t="s">
         <v>21</v>
       </c>
       <c r="Q22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="R22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S22" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="T22" s="2">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>84</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="23" t="s">
+      <c r="J23" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="3" t="s">
@@ -2402,57 +2392,57 @@
       <c r="O23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P23" s="20" t="s">
+      <c r="P23" s="14" t="s">
         <v>21</v>
       </c>
       <c r="Q23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R23" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="R23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0</v>
-      </c>
-      <c r="U23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>84</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J24" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="23" t="s">
+      <c r="J24" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L24" s="3" t="s">
@@ -2471,53 +2461,53 @@
         <v>21</v>
       </c>
       <c r="Q24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R24" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" s="2">
+        <v>200001</v>
+      </c>
+      <c r="U24" s="2">
+        <v>202401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="R24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T24" s="2">
-        <v>0</v>
-      </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>84</v>
-      </c>
       <c r="I25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="23" t="s">
+      <c r="J25" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L25" s="3" t="s">
@@ -2532,17 +2522,17 @@
       <c r="O25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P25" s="31" t="s">
+      <c r="P25" s="14" t="s">
         <v>21</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
+      </c>
+      <c r="S25" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="T25" s="2">
         <v>0</v>
@@ -2552,56 +2542,56 @@
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" s="14" t="s">
+      <c r="N26" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" s="25" t="s">
         <v>21</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>27</v>
@@ -2617,37 +2607,37 @@
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>84</v>
+      <c r="H27" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="23" t="s">
+      <c r="J27" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L27" s="3" t="s">
@@ -2666,7 +2656,7 @@
         <v>21</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>27</v>
@@ -2682,37 +2672,37 @@
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="21" t="s">
-        <v>78</v>
+      <c r="A28" s="32" t="s">
+        <v>83</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>84</v>
+        <v>20</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K28" s="23" t="s">
+      <c r="J28" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L28" s="3" t="s">
@@ -2731,7 +2721,7 @@
         <v>21</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>27</v>
@@ -2747,37 +2737,37 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="21" t="s">
-        <v>79</v>
+      <c r="A29" s="32" t="s">
+        <v>84</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>84</v>
+        <v>20</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K29" s="23" t="s">
+      <c r="J29" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K29" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="3" t="s">
@@ -2792,11 +2782,11 @@
       <c r="O29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P29" s="27" t="s">
+      <c r="P29" s="14" t="s">
         <v>21</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>27</v>
@@ -2812,37 +2802,37 @@
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="21" t="s">
-        <v>80</v>
+      <c r="A30" s="32" t="s">
+        <v>85</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>84</v>
+        <v>20</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J30" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K30" s="23" t="s">
+      <c r="J30" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L30" s="3" t="s">
@@ -2861,10 +2851,10 @@
         <v>21</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="R30" s="16" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>27</v>
@@ -2877,37 +2867,37 @@
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>84</v>
+        <v>20</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J31" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K31" s="23" t="s">
+      <c r="J31" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L31" s="3" t="s">
@@ -2926,53 +2916,53 @@
         <v>21</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="R31" s="17" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="S31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="T31" s="2">
-        <v>200001</v>
+        <v>0</v>
       </c>
       <c r="U31" s="2">
-        <v>202401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="21" t="s">
-        <v>82</v>
+      <c r="A32" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>84</v>
+        <v>20</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J32" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" s="23" t="s">
+      <c r="J32" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L32" s="3" t="s">
@@ -2991,13 +2981,13 @@
         <v>21</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S32" s="18" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T32" s="2">
         <v>0</v>
@@ -3007,56 +2997,56 @@
       </c>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="30" t="s">
+      <c r="A33" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" s="23" t="s">
+      <c r="B33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M33" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="N33" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="O33" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="P33" s="27" t="s">
+      <c r="M33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P33" s="14" t="s">
         <v>21</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R33" s="2" t="s">
         <v>27</v>
@@ -3072,7 +3062,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q33" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\feb_data_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B823439-A178-4428-AD48-D4313E20F67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A80429-A05D-4067-BDC5-DD39EAAAB8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="92">
   <si>
     <t>csv</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>ETL_AUTO.CONTACT_INFO.CONTACT_INFO_RAW</t>
+  </si>
+  <si>
+    <t>snowflake</t>
   </si>
 </sst>
 </file>
@@ -887,10 +890,10 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28:H33"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -2632,7 +2635,7 @@
         <v>90</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="J27" s="24" t="s">
         <v>89</v>
@@ -2697,7 +2700,7 @@
         <v>90</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="J28" s="24" t="s">
         <v>89</v>
@@ -2762,7 +2765,7 @@
         <v>90</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="J29" s="24" t="s">
         <v>89</v>
@@ -2827,7 +2830,7 @@
         <v>90</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="J30" s="24" t="s">
         <v>89</v>
@@ -2892,7 +2895,7 @@
         <v>90</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="J31" s="24" t="s">
         <v>89</v>
@@ -2957,7 +2960,7 @@
         <v>90</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="J32" s="24" t="s">
         <v>89</v>
@@ -3022,7 +3025,7 @@
         <v>90</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="J33" s="24" t="s">
         <v>89</v>
